--- a/resouce/Book1.xlsx
+++ b/resouce/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\利明\source\repos\販売管理システム\resouce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,18 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
-  <si>
-    <t>トータルサービスあらい</t>
-  </si>
-  <si>
-    <t>〒235-0012</t>
-  </si>
-  <si>
-    <t>神奈川県横浜市磯子区滝頭2-21-16</t>
-  </si>
-  <si>
-    <t>℡090-2643-0627　fax045-751-4628　　　　</t>
-  </si>
   <si>
     <t>備　　考</t>
   </si>
@@ -75,14 +63,6 @@
     <t>合　　計</t>
   </si>
   <si>
-    <t>　　見積No</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　　見積日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>　※上記金額は税込です。</t>
     <rPh sb="2" eb="4">
       <t>ジョウキ</t>
@@ -112,24 +92,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>登録番号：T5810057404783</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>普通口座 0481116　アライオサム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>横浜信用金庫　本牧支店（009）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>お振込み口座番号</t>
     <rPh sb="1" eb="3">
       <t>フリコ</t>
@@ -142,12 +104,69 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>　見積No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　見積日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>株式会社○×</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録番号：Txxxxxxxxxxxxxxxx</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〒xxx-xxxx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>℡xxx-xxxx-xxxx  Faxsss-sss-ssss</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○×県○×市○×区○×</t>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○×金庫　○×支店（011）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>普通口座 xxxxxxx　田中太郎</t>
+    <rPh sb="13" eb="15">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -155,8 +174,7 @@
     <numFmt numFmtId="179" formatCode="#,##0;&quot;▲&quot;#,##0;#"/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="@\ "/>
-    <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="183" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -977,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1040,24 +1058,12 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1142,148 +1148,179 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="5" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="180" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1388,49 +1425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1450,6 +1444,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1463780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>117580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13296900" y="850900"/>
+          <a:ext cx="752580" cy="752580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,15 +1760,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScale="78" zoomScaleNormal="60" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="42" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85:K85"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="42" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="5" customWidth="1"/>
@@ -1734,169 +1777,169 @@
     <col min="9" max="9" width="38.25" style="5" customWidth="1"/>
     <col min="10" max="10" width="4.625" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="5" customWidth="1"/>
     <col min="14" max="14" width="1.125" style="4" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
       <c r="J2" s="3"/>
-      <c r="L2" s="47" t="s">
-        <v>15</v>
+      <c r="L2" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="47" t="s">
-        <v>16</v>
+      <c r="L3" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="G4" s="81" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="G4" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="K6" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="61"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="64"/>
+      <c r="K7" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="109"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="K8" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J9" s="3"/>
-      <c r="K9" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
+      <c r="K9" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="34"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="60"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="95"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="46"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="58"/>
+      <c r="K11" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="122"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="59"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="95"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
+      <c r="K13" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
     </row>
     <row r="14" spans="2:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
@@ -1909,1050 +1952,1050 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>4</v>
+      <c r="I15" s="28" t="s">
+        <v>0</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="122"/>
-      <c r="M15" s="123"/>
+      <c r="K15" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
     </row>
     <row r="16" spans="2:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
     </row>
     <row r="18" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="42"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="115"/>
     </row>
     <row r="19" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
       <c r="U19" s="15"/>
     </row>
     <row r="20" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
       <c r="U20" s="15"/>
     </row>
     <row r="21" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="42"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
       <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="42"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
       <c r="U22" s="15"/>
     </row>
     <row r="23" spans="2:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="42"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="3"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="42"/>
+    <row r="24" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="52"/>
+      <c r="K24" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="68"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="42"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="57" t="s">
-        <v>21</v>
+      <c r="K25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>15</v>
       </c>
       <c r="M25" s="11"/>
-      <c r="O25" s="56" t="s">
-        <v>20</v>
+      <c r="O25" s="48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="42"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="53"/>
+      <c r="K26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="71"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="42"/>
-      <c r="K27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="54"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="38"/>
+      <c r="K27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="69"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="42"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="38"/>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="42"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="42"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="42"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="42"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="42"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="42"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="68"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="45"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="133" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="72"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="38"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="72"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="72"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="72"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="72"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="72"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="72"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="72"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="38"/>
+    </row>
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="72"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="72"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="72"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="38"/>
+    </row>
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="72"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="41"/>
+    </row>
+    <row r="74" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="28"/>
-    </row>
-    <row r="40" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="41" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="42"/>
-    </row>
-    <row r="42" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="42"/>
-    </row>
-    <row r="43" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="42"/>
-    </row>
-    <row r="44" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="42"/>
-    </row>
-    <row r="45" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="42"/>
-    </row>
-    <row r="46" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="42"/>
-    </row>
-    <row r="47" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="42"/>
-    </row>
-    <row r="48" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="42"/>
-    </row>
-    <row r="49" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="42"/>
-    </row>
-    <row r="50" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="42"/>
-    </row>
-    <row r="51" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="42"/>
-    </row>
-    <row r="53" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="42"/>
-    </row>
-    <row r="57" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="42"/>
-    </row>
-    <row r="58" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="42"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="42"/>
-    </row>
-    <row r="60" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="42"/>
-    </row>
-    <row r="61" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="42"/>
-    </row>
-    <row r="62" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="42"/>
-    </row>
-    <row r="63" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="42"/>
-    </row>
-    <row r="64" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="42"/>
-    </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="65"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="42"/>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="65"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="42"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="65"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="136"/>
-      <c r="I67" s="42"/>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="65"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="42"/>
-    </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="65"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="42"/>
-    </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="65"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="136"/>
-      <c r="I70" s="42"/>
-    </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="65"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="42"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="65"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="130"/>
-      <c r="H72" s="136"/>
-      <c r="I72" s="42"/>
-    </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="68"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="45"/>
-    </row>
-    <row r="74" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="70" t="s">
+      <c r="H74" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="71"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>4</v>
+      <c r="I74" s="31" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="28"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="73"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="41"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="42"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="38"/>
     </row>
     <row r="78" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="130"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="42"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="38"/>
     </row>
     <row r="79" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="130"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="42"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="38"/>
     </row>
     <row r="80" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="130"/>
-      <c r="H80" s="136"/>
-      <c r="I80" s="42"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="38"/>
     </row>
     <row r="81" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="42"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="38"/>
     </row>
     <row r="82" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="130"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="42"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="38"/>
     </row>
     <row r="83" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="130"/>
-      <c r="H83" s="136"/>
-      <c r="I83" s="42"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="38"/>
     </row>
     <row r="84" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="130"/>
-      <c r="H84" s="136"/>
-      <c r="I84" s="42"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="38"/>
     </row>
     <row r="85" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="130"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="42"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="38"/>
     </row>
     <row r="86" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="130"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="42"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="38"/>
     </row>
     <row r="87" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="42"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="38"/>
     </row>
     <row r="88" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="136"/>
-      <c r="I88" s="42"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="38"/>
     </row>
     <row r="89" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="136"/>
-      <c r="I89" s="42"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="38"/>
     </row>
     <row r="90" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="136"/>
-      <c r="I90" s="42"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="38"/>
     </row>
     <row r="91" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="136"/>
-      <c r="I91" s="42"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="38"/>
     </row>
     <row r="92" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="130"/>
-      <c r="H92" s="136"/>
-      <c r="I92" s="42"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="38"/>
     </row>
     <row r="93" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="130"/>
-      <c r="H93" s="136"/>
-      <c r="I93" s="42"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="38"/>
     </row>
     <row r="94" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="136"/>
-      <c r="I94" s="42"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="38"/>
       <c r="K94" s="3"/>
     </row>
     <row r="95" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="127"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="130"/>
-      <c r="H95" s="136"/>
-      <c r="I95" s="42"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="38"/>
     </row>
     <row r="96" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="130"/>
-      <c r="H96" s="136"/>
-      <c r="I96" s="42"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="38"/>
     </row>
     <row r="97" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="130"/>
-      <c r="H97" s="136"/>
-      <c r="I97" s="42"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="38"/>
     </row>
     <row r="98" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="127"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="130"/>
-      <c r="H98" s="136"/>
-      <c r="I98" s="42"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="38"/>
     </row>
     <row r="99" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="127"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="130"/>
-      <c r="H99" s="136"/>
-      <c r="I99" s="42"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="38"/>
     </row>
     <row r="100" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="65"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="127"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="136"/>
-      <c r="I100" s="42"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="38"/>
     </row>
     <row r="101" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="65"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="130"/>
-      <c r="H101" s="136"/>
-      <c r="I101" s="42"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="38"/>
     </row>
     <row r="102" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="65"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="127"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="130"/>
-      <c r="H102" s="136"/>
-      <c r="I102" s="42"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="38"/>
     </row>
     <row r="103" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="65"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="127"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="136"/>
-      <c r="I103" s="42"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="38"/>
     </row>
     <row r="104" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="65"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="127"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="136"/>
-      <c r="I104" s="42"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="38"/>
     </row>
     <row r="105" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="65"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="127"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="130"/>
-      <c r="H105" s="136"/>
-      <c r="I105" s="42"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="38"/>
     </row>
     <row r="106" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="65"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="127"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="130"/>
-      <c r="H106" s="136"/>
-      <c r="I106" s="42"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="38"/>
     </row>
     <row r="107" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="65"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="127"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="130"/>
-      <c r="H107" s="136"/>
-      <c r="I107" s="42"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="38"/>
     </row>
     <row r="108" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="65"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="127"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="130"/>
-      <c r="H108" s="136"/>
-      <c r="I108" s="42"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="38"/>
     </row>
     <row r="109" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="68"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="132"/>
-      <c r="H109" s="137"/>
-      <c r="I109" s="45"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -3066,7 +3109,7 @@
     <mergeCell ref="B94:D94"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;Cページ &amp;P</oddFooter>
@@ -3078,5 +3121,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="14" max="1048575" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>